--- a/report/結合_機能確認テスト結果.xlsx
+++ b/report/結合_機能確認テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4CF2A5C3-DD14-43C6-AAB1-74877D910BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0008B8F7-132D-4B60-B6F6-1CC17BD58764}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4CF2A5C3-DD14-43C6-AAB1-74877D910BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1DED27BD-092A-4B7F-94E2-A107013651D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>前提：本テストのバッチ実行では、テスト内で新規登録した加入者情報・料金情報のみが請求データ作成対象となるようにバッチ稼働対象年月を設定している。</t>
     <rPh sb="0" eb="2">
@@ -348,6 +348,13 @@
   </si>
   <si>
     <t>3-3．DBの請求明細データにバッチ稼働対象の料金情報のデータが作成されていること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DBで確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,16 +427,22 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -443,12 +456,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -918,6 +925,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>48981</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE8A30D-23AF-4F23-92EE-02B37A2A5A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="11487150"/>
+          <a:ext cx="9716856" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1369,6 +1426,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>543889</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>86120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC276A7-1F46-47AE-9B67-10F7E0D5E36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="10115550"/>
+          <a:ext cx="6906589" cy="2829320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2174,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4623BAD6-9F8B-41A7-9C8A-D6525DEDC00F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2184,7 +2291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>45433</v>
       </c>
     </row>
@@ -2201,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2214,7 +2321,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>45433</v>
       </c>
     </row>
@@ -2241,97 +2348,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2" t="s">
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B70" s="2" t="s">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="8" t="s">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="3" t="s">
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3" t="s">
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B71" s="2" t="s">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="9" t="s">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="1" t="s">
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1" t="s">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2342,9 +2454,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BB21D8-2245-4C66-89D3-2A7D33200073}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2354,7 +2468,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>45433</v>
       </c>
     </row>
@@ -2381,67 +2495,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="5" t="s">
+      <c r="C79" s="7"/>
+      <c r="D79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F79" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G79" s="7"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="11" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F80" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G80" s="8"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="10" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E81" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F81" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G81" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F6A8E0-3493-4DCB-9CFD-AB9D331BEAE5}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2463,7 +2582,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>45433</v>
       </c>
     </row>
@@ -2510,23 +2629,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3116184C5170547BBDB6AD697EC8207" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e23b6b71ce671e759ba673d0e8f564b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24" xmlns:ns4="56e10275-989c-4f73-8c17-49061c649ff8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="274c3b4661ae844efded397ec1217342" ns3:_="" ns4:_="">
     <xsd:import namespace="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24"/>
@@ -2747,32 +2849,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24"/>
-    <ds:schemaRef ds:uri="56e10275-989c-4f73-8c17-49061c649ff8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10F2DE91-1CB4-438E-9EC1-D0E3FC2783E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2789,4 +2883,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="56e10275-989c-4f73-8c17-49061c649ff8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>